--- a/data/trans_dic/P34A_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P34A_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.4721436225889709</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.5237693689585295</v>
+        <v>0.5237693689585298</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.5522846928900926</v>
@@ -697,7 +697,7 @@
         <v>0.4347768372791946</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.4930183552801424</v>
+        <v>0.4930183552801425</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4812754591995881</v>
+        <v>0.4773661830975011</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.23144750678506</v>
+        <v>0.2293029513261393</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3635193893781678</v>
+        <v>0.364510109709821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4076608757588128</v>
+        <v>0.4071502879745715</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5384319040406297</v>
+        <v>0.539120681256153</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3254061733159963</v>
+        <v>0.3279930698675637</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4435798472577342</v>
+        <v>0.4434897271911378</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4911630780338029</v>
+        <v>0.4881279141109214</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5245241388918894</v>
+        <v>0.5246619846034887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2876891265840082</v>
+        <v>0.2885889612914204</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4125104268228512</v>
+        <v>0.413442408870106</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4627119981705743</v>
+        <v>0.4596682043625886</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5622334307768722</v>
+        <v>0.5614958197686988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2873208925918305</v>
+        <v>0.2868114138053995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4230816675226238</v>
+        <v>0.4254876830023421</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5059792408653767</v>
+        <v>0.5002842470969296</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6035726555090489</v>
+        <v>0.6048811719648201</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3881158964240067</v>
+        <v>0.3874366685794854</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5010138731468586</v>
+        <v>0.5025456445746697</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5621158557564855</v>
+        <v>0.5629688584003537</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5766518162560217</v>
+        <v>0.5790466094639457</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3299908722281126</v>
+        <v>0.3308393076616293</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4543178232944268</v>
+        <v>0.4547331963585655</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.522978982145844</v>
+        <v>0.5214926138191333</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3284227202273392</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3873561794889793</v>
+        <v>0.3873561794889792</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.429967874306281</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4063601017531815</v>
+        <v>0.4062656190488474</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2065717389826462</v>
+        <v>0.2034792274148055</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2974710974692603</v>
+        <v>0.2973376483911443</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3509356949055417</v>
+        <v>0.352961979743308</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4018159854158359</v>
+        <v>0.4023125738430746</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2727852266764822</v>
+        <v>0.2710820913896283</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3847280019101935</v>
+        <v>0.3838349942285732</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4146496383563178</v>
+        <v>0.4139807190072408</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.410908880374239</v>
+        <v>0.4101710145107564</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2469000886766438</v>
+        <v>0.2466065233388064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3536353666722413</v>
+        <v>0.3505329102541959</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3956930909303521</v>
+        <v>0.3956273173225252</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4677861406632488</v>
+        <v>0.4655530642129828</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2615494721720319</v>
+        <v>0.2597308183961181</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3606065121093493</v>
+        <v>0.3596345836990423</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4205304945459186</v>
+        <v>0.421222228557795</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4615976795502445</v>
+        <v>0.4654511789002731</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3277060824465226</v>
+        <v>0.3275715380444254</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4470425744137381</v>
+        <v>0.4495100384622273</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4687034625218591</v>
+        <v>0.4666313269684417</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4549661131034253</v>
+        <v>0.4540044864893337</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2862345659406154</v>
+        <v>0.2882758299761854</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3975225346133046</v>
+        <v>0.3959444104770223</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.437785811415699</v>
+        <v>0.4388710269773148</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.3635018739378257</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3458448453238245</v>
+        <v>0.3458448453238246</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3264318750690103</v>
+        <v>0.3230247466479542</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1814001131802293</v>
+        <v>0.1803906533179484</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2854854989464305</v>
+        <v>0.2869684766277542</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2911121740752642</v>
+        <v>0.2859067553146904</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3613921035559658</v>
+        <v>0.3607036372400122</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.249937289173669</v>
+        <v>0.2467084672449929</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3774745645575907</v>
+        <v>0.3764199705062422</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3507771674503604</v>
+        <v>0.3489495184231501</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3480901704921352</v>
+        <v>0.3507252644988731</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2228312922630974</v>
+        <v>0.2219353907497255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.340499243045354</v>
+        <v>0.3402783687748083</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3245518855842922</v>
+        <v>0.3275906868690004</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3810875189557956</v>
+        <v>0.3791206047431294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2380213090363151</v>
+        <v>0.2400325508627493</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3537672380660633</v>
+        <v>0.3515204145661066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3512852882209475</v>
+        <v>0.3468856842872342</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4230729437699464</v>
+        <v>0.4234622228380042</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3118316562048761</v>
+        <v>0.3071354736267294</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4462459041934255</v>
+        <v>0.4479528818180076</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4001870169699517</v>
+        <v>0.4001762164709339</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3918924315273771</v>
+        <v>0.3932269824897187</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2645915941288256</v>
+        <v>0.2648541622070205</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3880117130031813</v>
+        <v>0.3880155736092405</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3662480984432573</v>
+        <v>0.3680038905020899</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.2622135060693788</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2304863021125394</v>
+        <v>0.2304863021125395</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.4228733133867103</v>
@@ -1093,7 +1093,7 @@
         <v>0.3590919653476061</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3118773187766785</v>
+        <v>0.3118773187766786</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3777067855888512</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3028147755951374</v>
+        <v>0.2957242635695649</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1374462150358051</v>
+        <v>0.1385820126876226</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2259773980174364</v>
+        <v>0.2226665821900922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2018407020716707</v>
+        <v>0.2029881311431513</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3704519908429327</v>
+        <v>0.3674561226630456</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2275872699386927</v>
+        <v>0.2293095015998999</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3147647924992719</v>
+        <v>0.3153497886347645</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2854650236830725</v>
+        <v>0.2823652061798704</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3413671519435837</v>
+        <v>0.3444162997035451</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1908844675711362</v>
+        <v>0.1912906021570651</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2806589265338751</v>
+        <v>0.280072088117534</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2482625705936837</v>
+        <v>0.2506495377620645</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3928657362919221</v>
+        <v>0.3919865926178818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2070878078003788</v>
+        <v>0.2086102282098408</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3087923436995685</v>
+        <v>0.3040066901943411</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.261284528841624</v>
+        <v>0.2599508061586168</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.476650189894732</v>
+        <v>0.478077277563762</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3147536689719628</v>
+        <v>0.3157655180393173</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4026156425507172</v>
+        <v>0.4070484909764849</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3440622601434121</v>
+        <v>0.3392451324658544</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4105198311807406</v>
+        <v>0.410688969296365</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2460086946125626</v>
+        <v>0.2482198526029422</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3410579729206499</v>
+        <v>0.3433160054267054</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2907467576926924</v>
+        <v>0.2921051202751557</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3834611796853851</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.369274617891614</v>
+        <v>0.3692746178916141</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3905863222040892</v>
+        <v>0.390830483431325</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2102927376663995</v>
+        <v>0.2101733413622704</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3229614506928125</v>
+        <v>0.3211107901077542</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3160048981460312</v>
+        <v>0.3133563619847447</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4395043296728908</v>
+        <v>0.4404533303521466</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2932345557880362</v>
+        <v>0.2921095960829501</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.410533159952376</v>
+        <v>0.4094253091214411</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3888120105723612</v>
+        <v>0.3898350399748974</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4205031114801923</v>
+        <v>0.420798034505273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2570551627446389</v>
+        <v>0.2560804893101073</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3722441949846</v>
+        <v>0.3723611546029086</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3579517038528894</v>
+        <v>0.3577372661105925</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4264173557308442</v>
+        <v>0.4279048693026869</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2394528563122536</v>
+        <v>0.2390905978825546</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3552193237323465</v>
+        <v>0.3548461558718115</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3516815525802964</v>
+        <v>0.3483861595198001</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4746156162021035</v>
+        <v>0.4742136653699034</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3265629171935563</v>
+        <v>0.32438848130911</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4459190706916296</v>
+        <v>0.442935217010846</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4177216329809748</v>
+        <v>0.4196976346042713</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4462804411667751</v>
+        <v>0.446224253919539</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2787864204344456</v>
+        <v>0.2791605723189758</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.395263980573333</v>
+        <v>0.3959507795673429</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3811129669073017</v>
+        <v>0.3808418842480402</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>276011</v>
+        <v>273769</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>241616</v>
+        <v>239377</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>410049</v>
+        <v>411166</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>202467</v>
+        <v>202213</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>487895</v>
+        <v>488519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>364431</v>
+        <v>367329</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>558716</v>
+        <v>558602</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>304213</v>
+        <v>302333</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>776107</v>
+        <v>776311</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>622520</v>
+        <v>624467</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>984893</v>
+        <v>987118</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>516400</v>
+        <v>513003</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>322440</v>
+        <v>322017</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>299944</v>
+        <v>299412</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>477235</v>
+        <v>479949</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>251297</v>
+        <v>248469</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>546922</v>
+        <v>548108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>434662</v>
+        <v>433901</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>631058</v>
+        <v>632987</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>348159</v>
+        <v>348688</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>853237</v>
+        <v>856781</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>714055</v>
+        <v>715891</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1084710</v>
+        <v>1085702</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>583659</v>
+        <v>582000</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>433139</v>
+        <v>433039</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>201836</v>
+        <v>198814</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>270349</v>
+        <v>270228</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>336488</v>
+        <v>338431</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>417491</v>
+        <v>418007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>298199</v>
+        <v>296337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>387219</v>
+        <v>386320</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>461844</v>
+        <v>461099</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>864926</v>
+        <v>863373</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>511142</v>
+        <v>510534</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>677318</v>
+        <v>671376</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>820133</v>
+        <v>819997</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>498613</v>
+        <v>496233</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>255553</v>
+        <v>253776</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>327728</v>
+        <v>326845</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>403218</v>
+        <v>403881</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>479605</v>
+        <v>483608</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>358237</v>
+        <v>358090</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>449937</v>
+        <v>452421</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>522050</v>
+        <v>519742</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>957663</v>
+        <v>955639</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>592573</v>
+        <v>596799</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>761375</v>
+        <v>758352</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>907376</v>
+        <v>909626</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>361738</v>
+        <v>357963</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>160397</v>
+        <v>159505</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>235171</v>
+        <v>236393</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>304228</v>
+        <v>298788</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>354442</v>
+        <v>353767</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>218894</v>
+        <v>216066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>291055</v>
+        <v>290242</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>367212</v>
+        <v>365299</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>727135</v>
+        <v>732639</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>392186</v>
+        <v>390609</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>543034</v>
+        <v>542682</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>678933</v>
+        <v>685290</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>422306</v>
+        <v>420126</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>210463</v>
+        <v>212241</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>291419</v>
+        <v>289568</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>367112</v>
+        <v>362515</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>414936</v>
+        <v>415318</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>273101</v>
+        <v>268988</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>344082</v>
+        <v>345398</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>418937</v>
+        <v>418926</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>818635</v>
+        <v>821422</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>465685</v>
+        <v>466147</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>618808</v>
+        <v>618814</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>766158</v>
+        <v>769831</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>133490</v>
+        <v>130364</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69020</v>
+        <v>69591</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>114503</v>
+        <v>112825</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>196133</v>
+        <v>197248</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>123265</v>
+        <v>122268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>103037</v>
+        <v>103817</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>154140</v>
+        <v>154426</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>258966</v>
+        <v>256154</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>264072</v>
+        <v>266430</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>182275</v>
+        <v>182663</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>279648</v>
+        <v>279063</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>466459</v>
+        <v>470944</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>173187</v>
+        <v>172800</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>103992</v>
+        <v>104756</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>156465</v>
+        <v>154040</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>253896</v>
+        <v>252600</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>158601</v>
+        <v>159076</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>142500</v>
+        <v>142958</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>197160</v>
+        <v>199331</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>312124</v>
+        <v>307754</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>317566</v>
+        <v>317697</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>234913</v>
+        <v>237024</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>339829</v>
+        <v>342079</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>546283</v>
+        <v>548835</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1245341</v>
+        <v>1246120</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>716549</v>
+        <v>716142</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1087502</v>
+        <v>1081271</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1097253</v>
+        <v>1088056</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1432195</v>
+        <v>1435288</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1038527</v>
+        <v>1034542</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1447865</v>
+        <v>1443958</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1433634</v>
+        <v>1437406</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2711004</v>
+        <v>2712905</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1786279</v>
+        <v>1779506</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2566279</v>
+        <v>2567086</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2562748</v>
+        <v>2561213</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1359584</v>
+        <v>1364327</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>815909</v>
+        <v>814674</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1196124</v>
+        <v>1194867</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1221132</v>
+        <v>1209689</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1546611</v>
+        <v>1545301</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1156563</v>
+        <v>1148862</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1572664</v>
+        <v>1562140</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1540230</v>
+        <v>1547516</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2877191</v>
+        <v>2876829</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>1937290</v>
+        <v>1939890</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2724980</v>
+        <v>2729714</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2728571</v>
+        <v>2726630</v>
       </c>
     </row>
     <row r="24">
